--- a/close.xlsx
+++ b/close.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$L$6</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -536,7 +539,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -552,6 +555,18 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -888,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L196"/>
+  <dimension ref="A1:L231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L2" sqref="A2:L231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1000,7 +1015,7 @@
         <v>8190.5</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G68" si="0">E5-E4</f>
+        <f>E5-E4</f>
         <v>-1.75</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -1027,7 +1042,7 @@
         <v>8273.7999999999993</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f>E6-E5</f>
         <v>83.299999999999272</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -1054,7 +1069,7 @@
         <v>8243.7999999999993</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f>E7-E6</f>
         <v>-30</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -1081,7 +1096,7 @@
         <v>8236.0499999999993</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f>E8-E7</f>
         <v>-7.75</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -1105,7 +1120,7 @@
         <v>8288.6</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f>E9-E8</f>
         <v>52.550000000001091</v>
       </c>
       <c r="H9" s="5" t="s">
@@ -1132,7 +1147,7 @@
         <v>8380.65</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f>E10-E9</f>
         <v>92.049999999999272</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -1156,7 +1171,7 @@
         <v>8407.2000000000007</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f>E11-E10</f>
         <v>26.550000000001091</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -1180,7 +1195,7 @@
         <v>8400.35</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f>E12-E11</f>
         <v>-6.8500000000003638</v>
       </c>
       <c r="H12" s="5" t="s">
@@ -1207,7 +1222,7 @@
         <v>8412.7999999999993</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f>E13-E12</f>
         <v>12.449999999998909</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -1234,7 +1249,7 @@
         <v>8398</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f>E14-E13</f>
         <v>-14.799999999999272</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -1261,7 +1276,7 @@
         <v>8417</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f>E15-E14</f>
         <v>19</v>
       </c>
       <c r="H15" s="5" t="s">
@@ -1288,7 +1303,7 @@
         <v>8435.1</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f>E16-E15</f>
         <v>18.100000000000364</v>
       </c>
       <c r="H16" s="5" t="s">
@@ -1312,7 +1327,7 @@
         <v>8349.35</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f>E17-E16</f>
         <v>-85.75</v>
       </c>
       <c r="H17" s="5" t="s">
@@ -1339,7 +1354,7 @@
         <v>8391.5</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f>E18-E17</f>
         <v>42.149999999999636</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -1366,7 +1381,7 @@
         <v>8475.7999999999993</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f>E19-E18</f>
         <v>84.299999999999272</v>
       </c>
       <c r="H19" s="5" t="s">
@@ -1390,7 +1405,7 @@
         <v>8602.75</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="0"/>
+        <f>E20-E19</f>
         <v>126.95000000000073</v>
       </c>
       <c r="H20" s="7" t="s">
@@ -1419,7 +1434,7 @@
         <v>8641.25</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f>E21-E20</f>
         <v>38.5</v>
       </c>
       <c r="H21" s="5" t="s">
@@ -1443,7 +1458,7 @@
         <v>8632.75</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f>E22-E21</f>
         <v>-8.5</v>
       </c>
       <c r="H22" s="5" t="s">
@@ -1470,7 +1485,7 @@
         <v>8561.2999999999993</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <f>E23-E22</f>
         <v>-71.450000000000728</v>
       </c>
       <c r="H23" s="5" t="s">
@@ -1494,7 +1509,7 @@
         <v>8716.4</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f>E24-E23</f>
         <v>155.10000000000036</v>
       </c>
       <c r="H24" s="5" t="s">
@@ -1521,7 +1536,7 @@
         <v>8734.25</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f>E25-E24</f>
         <v>17.850000000000364</v>
       </c>
       <c r="H25" s="5" t="s">
@@ -1545,7 +1560,7 @@
         <v>8740.9500000000007</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
+        <f>E26-E25</f>
         <v>6.7000000000007276</v>
       </c>
       <c r="H26" s="5" t="s">
@@ -1569,7 +1584,7 @@
         <v>8801.0499999999993</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f>E27-E26</f>
         <v>60.099999999998545</v>
       </c>
       <c r="H27" s="5" t="s">
@@ -1593,7 +1608,7 @@
         <v>8768.2999999999993</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f>E28-E27</f>
         <v>-32.75</v>
       </c>
       <c r="H28" s="5" t="s">
@@ -1620,7 +1635,7 @@
         <v>8769.0499999999993</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
+        <f>E29-E28</f>
         <v>0.75</v>
       </c>
       <c r="H29" s="5" t="s">
@@ -1647,7 +1662,7 @@
         <v>8778.4</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
+        <f>E30-E29</f>
         <v>9.3500000000003638</v>
       </c>
       <c r="H30" s="5" t="s">
@@ -1671,7 +1686,7 @@
         <v>8793.5499999999993</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <f>E31-E30</f>
         <v>15.149999999999636</v>
       </c>
       <c r="H31" s="5" t="s">
@@ -1695,7 +1710,7 @@
         <v>8805.0499999999993</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
+        <f>E32-E31</f>
         <v>11.5</v>
       </c>
       <c r="H32" s="5" t="s">
@@ -1719,7 +1734,7 @@
         <v>8792.2999999999993</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
+        <f>E33-E32</f>
         <v>-12.75</v>
       </c>
       <c r="H33" s="5" t="s">
@@ -1746,7 +1761,7 @@
         <v>8724.7000000000007</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <f>E34-E33</f>
         <v>-67.599999999998545</v>
       </c>
       <c r="H34" s="5" t="s">
@@ -1770,7 +1785,7 @@
         <v>8778</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f>E35-E34</f>
         <v>53.299999999999272</v>
       </c>
       <c r="H35" s="5" t="s">
@@ -1797,7 +1812,7 @@
         <v>8821.7000000000007</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <f>E36-E35</f>
         <v>43.700000000000728</v>
       </c>
       <c r="H36" s="5" t="s">
@@ -1821,7 +1836,7 @@
         <v>8879.2000000000007</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
+        <f>E37-E36</f>
         <v>57.5</v>
       </c>
       <c r="H37" s="5" t="s">
@@ -1845,7 +1860,7 @@
         <v>8907.85</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
+        <f>E38-E37</f>
         <v>28.649999999999636</v>
       </c>
       <c r="H38" s="5" t="s">
@@ -1869,7 +1884,7 @@
         <v>8926.9</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
+        <f>E39-E38</f>
         <v>19.049999999999272</v>
       </c>
       <c r="H39" s="5" t="s">
@@ -1893,7 +1908,7 @@
         <v>8939.5</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="0"/>
+        <f>E40-E39</f>
         <v>12.600000000000364</v>
       </c>
       <c r="H40" s="7" t="s">
@@ -1922,7 +1937,7 @@
         <v>8896.7000000000007</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
+        <f>E41-E40</f>
         <v>-42.799999999999272</v>
       </c>
       <c r="H41" s="5" t="s">
@@ -1949,7 +1964,7 @@
         <v>8879.6</v>
       </c>
       <c r="G42">
-        <f t="shared" si="0"/>
+        <f>E42-E41</f>
         <v>-17.100000000000364</v>
       </c>
       <c r="H42" s="5" t="s">
@@ -1973,7 +1988,7 @@
         <v>8945.7999999999993</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
+        <f>E43-E42</f>
         <v>66.199999999998909</v>
       </c>
       <c r="H43" s="5" t="s">
@@ -2000,7 +2015,7 @@
         <v>8899.75</v>
       </c>
       <c r="G44">
-        <f t="shared" si="0"/>
+        <f>E44-E43</f>
         <v>-46.049999999999272</v>
       </c>
       <c r="H44" s="5" t="s">
@@ -2027,7 +2042,7 @@
         <v>8897.5499999999993</v>
       </c>
       <c r="G45">
-        <f t="shared" si="0"/>
+        <f>E45-E44</f>
         <v>-2.2000000000007276</v>
       </c>
       <c r="H45" s="5" t="s">
@@ -2051,7 +2066,7 @@
         <v>8963.4500000000007</v>
       </c>
       <c r="G46">
-        <f t="shared" si="0"/>
+        <f>E46-E45</f>
         <v>65.900000000001455</v>
       </c>
       <c r="H46" s="5" t="s">
@@ -2078,7 +2093,7 @@
         <v>8946.9</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
+        <f>E47-E46</f>
         <v>-16.550000000001091</v>
       </c>
       <c r="H47" s="5" t="s">
@@ -2102,7 +2117,7 @@
         <v>8924.2999999999993</v>
       </c>
       <c r="G48">
-        <f t="shared" si="0"/>
+        <f>E48-E47</f>
         <v>-22.600000000000364</v>
       </c>
       <c r="H48" s="5" t="s">
@@ -2126,7 +2141,7 @@
         <v>8927</v>
       </c>
       <c r="G49">
-        <f t="shared" si="0"/>
+        <f>E49-E48</f>
         <v>2.7000000000007276</v>
       </c>
       <c r="H49" s="5" t="s">
@@ -2153,7 +2168,7 @@
         <v>8934.5499999999993</v>
       </c>
       <c r="G50">
-        <f t="shared" si="0"/>
+        <f>E50-E49</f>
         <v>7.5499999999992724</v>
       </c>
       <c r="H50" s="5" t="s">
@@ -2177,7 +2192,7 @@
         <v>9087</v>
       </c>
       <c r="G51">
-        <f t="shared" si="0"/>
+        <f>E51-E50</f>
         <v>152.45000000000073</v>
       </c>
       <c r="H51" s="5" t="s">
@@ -2201,7 +2216,7 @@
         <v>9084.7999999999993</v>
       </c>
       <c r="G52">
-        <f t="shared" si="0"/>
+        <f>E52-E51</f>
         <v>-2.2000000000007276</v>
       </c>
       <c r="H52" s="5" t="s">
@@ -2228,7 +2243,7 @@
         <v>9153.7000000000007</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
+        <f>E53-E52</f>
         <v>68.900000000001455</v>
       </c>
       <c r="H53" s="5" t="s">
@@ -2252,7 +2267,7 @@
         <v>9160.0499999999993</v>
       </c>
       <c r="G54">
-        <f t="shared" si="0"/>
+        <f>E54-E53</f>
         <v>6.3499999999985448</v>
       </c>
       <c r="H54" s="5" t="s">
@@ -2276,7 +2291,7 @@
         <v>9126.85</v>
       </c>
       <c r="G55">
-        <f t="shared" si="0"/>
+        <f>E55-E54</f>
         <v>-33.199999999998909</v>
       </c>
       <c r="H55" s="5" t="s">
@@ -2303,7 +2318,7 @@
         <v>9121.5</v>
       </c>
       <c r="G56">
-        <f t="shared" si="0"/>
+        <f>E56-E55</f>
         <v>-5.3500000000003638</v>
       </c>
       <c r="H56" s="5" t="s">
@@ -2327,7 +2342,7 @@
         <v>9030.4500000000007</v>
       </c>
       <c r="G57">
-        <f t="shared" si="0"/>
+        <f>E57-E56</f>
         <v>-91.049999999999272</v>
       </c>
       <c r="H57" s="5" t="s">
@@ -2351,7 +2366,7 @@
         <v>9086.2999999999993</v>
       </c>
       <c r="G58">
-        <f t="shared" si="0"/>
+        <f>E58-E57</f>
         <v>55.849999999998545</v>
       </c>
       <c r="H58" s="5" t="s">
@@ -2378,7 +2393,7 @@
         <v>9108</v>
       </c>
       <c r="G59">
-        <f t="shared" si="0"/>
+        <f>E59-E58</f>
         <v>21.700000000000728</v>
       </c>
       <c r="H59" s="5" t="s">
@@ -2402,7 +2417,7 @@
         <v>9045.2000000000007</v>
       </c>
       <c r="G60">
-        <f t="shared" si="0"/>
+        <f>E60-E59</f>
         <v>-62.799999999999272</v>
       </c>
       <c r="H60" s="5" t="s">
@@ -2429,7 +2444,7 @@
         <v>9100.7999999999993</v>
       </c>
       <c r="G61">
-        <f t="shared" si="0"/>
+        <f>E61-E60</f>
         <v>55.599999999998545</v>
       </c>
       <c r="H61" s="5" t="s">
@@ -2453,7 +2468,7 @@
         <v>9143.7999999999993</v>
       </c>
       <c r="G62">
-        <f t="shared" si="0"/>
+        <f>E62-E61</f>
         <v>43</v>
       </c>
       <c r="H62" s="5" t="s">
@@ -2477,7 +2492,7 @@
         <v>9173.75</v>
       </c>
       <c r="G63" s="4">
-        <f t="shared" si="0"/>
+        <f>E63-E62</f>
         <v>29.950000000000728</v>
       </c>
       <c r="H63" s="7" t="s">
@@ -2506,7 +2521,7 @@
         <v>9173.75</v>
       </c>
       <c r="G64">
-        <f t="shared" si="0"/>
+        <f>E64-E63</f>
         <v>0</v>
       </c>
       <c r="H64" s="5" t="s">
@@ -2530,7 +2545,7 @@
         <v>9237.85</v>
       </c>
       <c r="G65">
-        <f t="shared" si="0"/>
+        <f>E65-E64</f>
         <v>64.100000000000364</v>
       </c>
       <c r="H65" s="5" t="s">
@@ -2554,7 +2569,7 @@
         <v>9265.15</v>
       </c>
       <c r="G66">
-        <f t="shared" si="0"/>
+        <f>E66-E65</f>
         <v>27.299999999999272</v>
       </c>
       <c r="H66" s="5" t="s">
@@ -2578,7 +2593,7 @@
         <v>9261.9500000000007</v>
       </c>
       <c r="G67">
-        <f t="shared" si="0"/>
+        <f>E67-E66</f>
         <v>-3.1999999999989086</v>
       </c>
       <c r="H67" s="5" t="s">
@@ -2605,7 +2620,7 @@
         <v>9198.2999999999993</v>
       </c>
       <c r="G68">
-        <f t="shared" si="0"/>
+        <f>E68-E67</f>
         <v>-63.650000000001455</v>
       </c>
       <c r="H68" s="5" t="s">
@@ -2629,7 +2644,7 @@
         <v>9181.4500000000007</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G132" si="1">E69-E68</f>
+        <f>E69-E68</f>
         <v>-16.849999999998545</v>
       </c>
       <c r="H69" s="5" t="s">
@@ -2653,7 +2668,7 @@
         <v>9237</v>
       </c>
       <c r="G70">
-        <f t="shared" si="1"/>
+        <f>E70-E69</f>
         <v>55.549999999999272</v>
       </c>
       <c r="H70" s="5" t="s">
@@ -2680,7 +2695,7 @@
         <v>9203.4500000000007</v>
       </c>
       <c r="G71">
-        <f t="shared" si="1"/>
+        <f>E71-E70</f>
         <v>-33.549999999999272</v>
       </c>
       <c r="H71" s="5" t="s">
@@ -2704,7 +2719,7 @@
         <v>9150.7999999999993</v>
       </c>
       <c r="G72">
-        <f t="shared" si="1"/>
+        <f>E72-E71</f>
         <v>-52.650000000001455</v>
       </c>
       <c r="H72" s="5" t="s">
@@ -2728,7 +2743,7 @@
         <v>9139.2999999999993</v>
       </c>
       <c r="G73">
-        <f t="shared" si="1"/>
+        <f>E73-E72</f>
         <v>-11.5</v>
       </c>
       <c r="H73" s="5" t="s">
@@ -2752,7 +2767,7 @@
         <v>9105.15</v>
       </c>
       <c r="G74">
-        <f t="shared" si="1"/>
+        <f>E74-E73</f>
         <v>-34.149999999999636</v>
       </c>
       <c r="H74" s="5" t="s">
@@ -2776,7 +2791,7 @@
         <v>9103.5</v>
       </c>
       <c r="G75">
-        <f t="shared" si="1"/>
+        <f>E75-E74</f>
         <v>-1.6499999999996362</v>
       </c>
       <c r="H75" s="5" t="s">
@@ -2800,7 +2815,7 @@
         <v>9136.4</v>
       </c>
       <c r="G76">
-        <f t="shared" si="1"/>
+        <f>E76-E75</f>
         <v>32.899999999999636</v>
       </c>
       <c r="H76" s="5" t="s">
@@ -2827,7 +2842,7 @@
         <v>9119.4</v>
       </c>
       <c r="G77">
-        <f t="shared" si="1"/>
+        <f>E77-E76</f>
         <v>-17</v>
       </c>
       <c r="H77" s="5" t="s">
@@ -2854,7 +2869,7 @@
         <v>9217.9500000000007</v>
       </c>
       <c r="G78">
-        <f t="shared" si="1"/>
+        <f>E78-E77</f>
         <v>98.550000000001091</v>
       </c>
       <c r="H78" s="5" t="s">
@@ -2881,7 +2896,7 @@
         <v>9306.6</v>
       </c>
       <c r="G79">
-        <f t="shared" si="1"/>
+        <f>E79-E78</f>
         <v>88.649999999999636</v>
       </c>
       <c r="H79" s="5" t="s">
@@ -2905,7 +2920,7 @@
         <v>9351.85</v>
       </c>
       <c r="G80">
-        <f t="shared" si="1"/>
+        <f>E80-E79</f>
         <v>45.25</v>
       </c>
       <c r="H80" s="5" t="s">
@@ -2929,7 +2944,7 @@
         <v>9342.15</v>
       </c>
       <c r="G81" s="4">
-        <f t="shared" si="1"/>
+        <f>E81-E80</f>
         <v>-9.7000000000007276</v>
       </c>
       <c r="H81" s="7" t="s">
@@ -2960,7 +2975,7 @@
         <v>9304.0499999999993</v>
       </c>
       <c r="G82">
-        <f t="shared" si="1"/>
+        <f>E82-E81</f>
         <v>-38.100000000000364</v>
       </c>
       <c r="H82" s="5" t="s">
@@ -2987,7 +3002,7 @@
         <v>9313.7999999999993</v>
       </c>
       <c r="G83">
-        <f t="shared" si="1"/>
+        <f>E83-E82</f>
         <v>9.75</v>
       </c>
       <c r="H83" s="5" t="s">
@@ -3014,7 +3029,7 @@
         <v>9311.9500000000007</v>
       </c>
       <c r="G84">
-        <f t="shared" si="1"/>
+        <f>E84-E83</f>
         <v>-1.8499999999985448</v>
       </c>
       <c r="H84" s="5" t="s">
@@ -3041,7 +3056,7 @@
         <v>9359.9</v>
       </c>
       <c r="G85">
-        <f t="shared" si="1"/>
+        <f>E85-E84</f>
         <v>47.949999999998909</v>
       </c>
       <c r="H85" s="5" t="s">
@@ -3068,7 +3083,7 @@
         <v>9285.2999999999993</v>
       </c>
       <c r="G86">
-        <f t="shared" si="1"/>
+        <f>E86-E85</f>
         <v>-74.600000000000364</v>
       </c>
       <c r="H86" s="5" t="s">
@@ -3095,7 +3110,7 @@
         <v>9314.0499999999993</v>
       </c>
       <c r="G87">
-        <f t="shared" si="1"/>
+        <f>E87-E86</f>
         <v>28.75</v>
       </c>
       <c r="H87" s="5" t="s">
@@ -3122,7 +3137,7 @@
         <v>9316.85</v>
       </c>
       <c r="G88">
-        <f t="shared" si="1"/>
+        <f>E88-E87</f>
         <v>2.8000000000010914</v>
       </c>
       <c r="H88" s="5" t="s">
@@ -3146,7 +3161,7 @@
         <v>9407.2999999999993</v>
       </c>
       <c r="G89">
-        <f t="shared" si="1"/>
+        <f>E89-E88</f>
         <v>90.449999999998909</v>
       </c>
       <c r="H89" s="5" t="s">
@@ -3170,7 +3185,7 @@
         <v>9422.4</v>
       </c>
       <c r="G90">
-        <f t="shared" si="1"/>
+        <f>E90-E89</f>
         <v>15.100000000000364</v>
       </c>
       <c r="H90" s="5" t="s">
@@ -3194,7 +3209,7 @@
         <v>9400.9</v>
       </c>
       <c r="G91">
-        <f t="shared" si="1"/>
+        <f>E91-E90</f>
         <v>-21.5</v>
       </c>
       <c r="H91" s="5" t="s">
@@ -3221,7 +3236,7 @@
         <v>9445.4</v>
       </c>
       <c r="G92">
-        <f t="shared" si="1"/>
+        <f>E92-E91</f>
         <v>44.5</v>
       </c>
       <c r="H92" s="5" t="s">
@@ -3248,7 +3263,7 @@
         <v>9512.25</v>
       </c>
       <c r="G93">
-        <f t="shared" si="1"/>
+        <f>E93-E92</f>
         <v>66.850000000000364</v>
       </c>
       <c r="H93" s="5" t="s">
@@ -3272,7 +3287,7 @@
         <v>9525.75</v>
       </c>
       <c r="G94">
-        <f t="shared" si="1"/>
+        <f>E94-E93</f>
         <v>13.5</v>
       </c>
       <c r="H94" s="5" t="s">
@@ -3296,7 +3311,7 @@
         <v>9429.4500000000007</v>
       </c>
       <c r="G95">
-        <f t="shared" si="1"/>
+        <f>E95-E94</f>
         <v>-96.299999999999272</v>
       </c>
       <c r="H95" s="5" t="s">
@@ -3323,7 +3338,7 @@
         <v>9427.9</v>
       </c>
       <c r="G96">
-        <f t="shared" si="1"/>
+        <f>E96-E95</f>
         <v>-1.5500000000010914</v>
       </c>
       <c r="H96" s="5" t="s">
@@ -3347,7 +3362,7 @@
         <v>9438.25</v>
       </c>
       <c r="G97">
-        <f t="shared" si="1"/>
+        <f>E97-E96</f>
         <v>10.350000000000364</v>
       </c>
       <c r="H97" s="5" t="s">
@@ -3374,7 +3389,7 @@
         <v>9386.15</v>
       </c>
       <c r="G98">
-        <f t="shared" si="1"/>
+        <f>E98-E97</f>
         <v>-52.100000000000364</v>
       </c>
       <c r="H98" s="5" t="s">
@@ -3401,7 +3416,7 @@
         <v>9360.5499999999993</v>
       </c>
       <c r="G99">
-        <f t="shared" si="1"/>
+        <f>E99-E98</f>
         <v>-25.600000000000364</v>
       </c>
       <c r="H99" s="5" t="s">
@@ -3425,7 +3440,7 @@
         <v>9509.75</v>
       </c>
       <c r="G100" s="4">
-        <f t="shared" si="1"/>
+        <f>E100-E99</f>
         <v>149.20000000000073</v>
       </c>
       <c r="H100" s="7" t="s">
@@ -3456,7 +3471,7 @@
         <v>9595.1</v>
       </c>
       <c r="G101">
-        <f t="shared" si="1"/>
+        <f>E101-E100</f>
         <v>85.350000000000364</v>
       </c>
       <c r="H101" s="5" t="s">
@@ -3480,7 +3495,7 @@
         <v>9604.9</v>
       </c>
       <c r="G102">
-        <f t="shared" si="1"/>
+        <f>E102-E101</f>
         <v>9.7999999999992724</v>
       </c>
       <c r="H102" s="5" t="s">
@@ -3504,7 +3519,7 @@
         <v>9624.5499999999993</v>
       </c>
       <c r="G103">
-        <f t="shared" si="1"/>
+        <f>E103-E102</f>
         <v>19.649999999999636</v>
       </c>
       <c r="H103" s="5" t="s">
@@ -3528,7 +3543,7 @@
         <v>9621.25</v>
       </c>
       <c r="G104">
-        <f t="shared" si="1"/>
+        <f>E104-E103</f>
         <v>-3.2999999999992724</v>
       </c>
       <c r="H104" s="5" t="s">
@@ -3555,7 +3570,7 @@
         <v>9616.1</v>
       </c>
       <c r="G105">
-        <f t="shared" si="1"/>
+        <f>E105-E104</f>
         <v>-5.1499999999996362</v>
       </c>
       <c r="H105" s="5" t="s">
@@ -3579,7 +3594,7 @@
         <v>9653.5</v>
       </c>
       <c r="G106">
-        <f t="shared" si="1"/>
+        <f>E106-E105</f>
         <v>37.399999999999636</v>
       </c>
       <c r="H106" s="5" t="s">
@@ -3606,7 +3621,7 @@
         <v>9675.1</v>
       </c>
       <c r="G107">
-        <f t="shared" si="1"/>
+        <f>E107-E106</f>
         <v>21.600000000000364</v>
       </c>
       <c r="H107" s="5" t="s">
@@ -3630,7 +3645,7 @@
         <v>9637.15</v>
       </c>
       <c r="G108">
-        <f t="shared" si="1"/>
+        <f>E108-E107</f>
         <v>-37.950000000000728</v>
       </c>
       <c r="H108" s="5" t="s">
@@ -3657,7 +3672,7 @@
         <v>9663.9</v>
       </c>
       <c r="G109">
-        <f t="shared" si="1"/>
+        <f>E109-E108</f>
         <v>26.75</v>
       </c>
       <c r="H109" s="5" t="s">
@@ -3684,7 +3699,7 @@
         <v>9647.25</v>
       </c>
       <c r="G110">
-        <f t="shared" si="1"/>
+        <f>E110-E109</f>
         <v>-16.649999999999636</v>
       </c>
       <c r="H110" s="5" t="s">
@@ -3711,7 +3726,7 @@
         <v>9668.25</v>
       </c>
       <c r="G111">
-        <f t="shared" si="1"/>
+        <f>E111-E110</f>
         <v>21</v>
       </c>
       <c r="H111" s="5" t="s">
@@ -3738,7 +3753,7 @@
         <v>9616.4</v>
       </c>
       <c r="G112">
-        <f t="shared" si="1"/>
+        <f>E112-E111</f>
         <v>-51.850000000000364</v>
       </c>
       <c r="H112" s="5" t="s">
@@ -3765,7 +3780,7 @@
         <v>9606.9</v>
       </c>
       <c r="G113">
-        <f t="shared" si="1"/>
+        <f>E113-E112</f>
         <v>-9.5</v>
       </c>
       <c r="H113" s="5" t="s">
@@ -3789,7 +3804,7 @@
         <v>9618.15</v>
       </c>
       <c r="G114">
-        <f t="shared" si="1"/>
+        <f>E114-E113</f>
         <v>11.25</v>
       </c>
       <c r="H114" s="5" t="s">
@@ -3816,7 +3831,7 @@
         <v>9578.0499999999993</v>
       </c>
       <c r="G115">
-        <f t="shared" si="1"/>
+        <f>E115-E114</f>
         <v>-40.100000000000364</v>
       </c>
       <c r="H115" s="5" t="s">
@@ -3843,7 +3858,7 @@
         <v>9588.0499999999993</v>
       </c>
       <c r="G116">
-        <f t="shared" si="1"/>
+        <f>E116-E115</f>
         <v>10</v>
       </c>
       <c r="H116" s="5" t="s">
@@ -3870,7 +3885,7 @@
         <v>9657.5499999999993</v>
       </c>
       <c r="G117">
-        <f t="shared" si="1"/>
+        <f>E117-E116</f>
         <v>69.5</v>
       </c>
       <c r="H117" s="5" t="s">
@@ -3894,7 +3909,7 @@
         <v>9653.5</v>
       </c>
       <c r="G118">
-        <f t="shared" si="1"/>
+        <f>E118-E117</f>
         <v>-4.0499999999992724</v>
       </c>
       <c r="H118" s="5" t="s">
@@ -3921,7 +3936,7 @@
         <v>9633.6</v>
       </c>
       <c r="G119">
-        <f t="shared" si="1"/>
+        <f>E119-E118</f>
         <v>-19.899999999999636</v>
       </c>
       <c r="H119" s="5" t="s">
@@ -3945,7 +3960,7 @@
         <v>9630</v>
       </c>
       <c r="G120">
-        <f t="shared" si="1"/>
+        <f>E120-E119</f>
         <v>-3.6000000000003638</v>
       </c>
       <c r="H120" s="5" t="s">
@@ -3969,7 +3984,7 @@
         <v>9574.9500000000007</v>
       </c>
       <c r="G121">
-        <f t="shared" si="1"/>
+        <f>E121-E120</f>
         <v>-55.049999999999272</v>
       </c>
       <c r="H121" s="5" t="s">
@@ -3993,7 +4008,7 @@
         <v>9511.4</v>
       </c>
       <c r="G122">
-        <f t="shared" si="1"/>
+        <f>E122-E121</f>
         <v>-63.550000000001091</v>
       </c>
       <c r="H122" s="5" t="s">
@@ -4017,7 +4032,7 @@
         <v>9491.25</v>
       </c>
       <c r="G123">
-        <f t="shared" si="1"/>
+        <f>E123-E122</f>
         <v>-20.149999999999636</v>
       </c>
       <c r="H123" s="5" t="s">
@@ -4041,7 +4056,7 @@
         <v>9504.1</v>
       </c>
       <c r="G124" s="4">
-        <f t="shared" si="1"/>
+        <f>E124-E123</f>
         <v>12.850000000000364</v>
       </c>
       <c r="H124" s="7" t="s">
@@ -4072,7 +4087,7 @@
         <v>9520.9</v>
       </c>
       <c r="G125">
-        <f t="shared" si="1"/>
+        <f>E125-E124</f>
         <v>16.799999999999272</v>
       </c>
       <c r="H125" s="5" t="s">
@@ -4096,7 +4111,7 @@
         <v>9615</v>
       </c>
       <c r="G126">
-        <f t="shared" si="1"/>
+        <f>E126-E125</f>
         <v>94.100000000000364</v>
       </c>
       <c r="H126" s="5" t="s">
@@ -4120,7 +4135,7 @@
         <v>9613.2999999999993</v>
       </c>
       <c r="G127">
-        <f t="shared" si="1"/>
+        <f>E127-E126</f>
         <v>-1.7000000000007276</v>
       </c>
       <c r="H127" s="5" t="s">
@@ -4147,7 +4162,7 @@
         <v>9637.6</v>
       </c>
       <c r="G128">
-        <f t="shared" si="1"/>
+        <f>E128-E127</f>
         <v>24.300000000001091</v>
       </c>
       <c r="H128" s="5" t="s">
@@ -4171,7 +4186,7 @@
         <v>9674.5499999999993</v>
       </c>
       <c r="G129">
-        <f t="shared" si="1"/>
+        <f>E129-E128</f>
         <v>36.949999999998909</v>
       </c>
       <c r="H129" s="5" t="s">
@@ -4195,7 +4210,7 @@
         <v>9665.7999999999993</v>
       </c>
       <c r="G130">
-        <f t="shared" si="1"/>
+        <f>E130-E129</f>
         <v>-8.75</v>
       </c>
       <c r="H130" s="5" t="s">
@@ -4222,7 +4237,7 @@
         <v>9771.0499999999993</v>
       </c>
       <c r="G131">
-        <f t="shared" si="1"/>
+        <f>E131-E130</f>
         <v>105.25</v>
       </c>
       <c r="H131" s="5" t="s">
@@ -4249,7 +4264,7 @@
         <v>9786.0499999999993</v>
       </c>
       <c r="G132">
-        <f t="shared" si="1"/>
+        <f>E132-E131</f>
         <v>15</v>
       </c>
       <c r="H132" s="5" t="s">
@@ -4273,7 +4288,7 @@
         <v>9816.1</v>
       </c>
       <c r="G133">
-        <f t="shared" ref="G133:G195" si="2">E133-E132</f>
+        <f>E133-E132</f>
         <v>30.050000000001091</v>
       </c>
       <c r="H133" s="5" t="s">
@@ -4297,7 +4312,7 @@
         <v>9891.7000000000007</v>
       </c>
       <c r="G134">
-        <f t="shared" si="2"/>
+        <f>E134-E133</f>
         <v>75.600000000000364</v>
       </c>
       <c r="H134" s="5" t="s">
@@ -4321,7 +4336,7 @@
         <v>9886.35</v>
       </c>
       <c r="G135">
-        <f t="shared" si="2"/>
+        <f>E135-E134</f>
         <v>-5.3500000000003638</v>
       </c>
       <c r="H135" s="5" t="s">
@@ -4348,7 +4363,7 @@
         <v>9915.9500000000007</v>
       </c>
       <c r="G136">
-        <f t="shared" si="2"/>
+        <f>E136-E135</f>
         <v>29.600000000000364</v>
       </c>
       <c r="H136" s="5" t="s">
@@ -4375,7 +4390,7 @@
         <v>9827.15</v>
       </c>
       <c r="G137">
-        <f t="shared" si="2"/>
+        <f>E137-E136</f>
         <v>-88.800000000001091</v>
       </c>
       <c r="H137" s="5" t="s">
@@ -4402,7 +4417,7 @@
         <v>9899.6</v>
       </c>
       <c r="G138">
-        <f t="shared" si="2"/>
+        <f>E138-E137</f>
         <v>72.450000000000728</v>
       </c>
       <c r="H138" s="5" t="s">
@@ -4429,7 +4444,7 @@
         <v>9873.2999999999993</v>
       </c>
       <c r="G139">
-        <f t="shared" si="2"/>
+        <f>E139-E138</f>
         <v>-26.300000000001091</v>
       </c>
       <c r="H139" s="5" t="s">
@@ -4456,7 +4471,7 @@
         <v>9915.25</v>
       </c>
       <c r="G140">
-        <f t="shared" si="2"/>
+        <f>E140-E139</f>
         <v>41.950000000000728</v>
       </c>
       <c r="H140" s="5" t="s">
@@ -4483,7 +4498,7 @@
         <v>9966.4</v>
       </c>
       <c r="G141">
-        <f t="shared" si="2"/>
+        <f>E141-E140</f>
         <v>51.149999999999636</v>
       </c>
       <c r="H141" s="5" t="s">
@@ -4507,7 +4522,7 @@
         <v>9964.5499999999993</v>
       </c>
       <c r="G142">
-        <f t="shared" si="2"/>
+        <f>E142-E141</f>
         <v>-1.8500000000003638</v>
       </c>
       <c r="H142" s="5" t="s">
@@ -4534,7 +4549,7 @@
         <v>10020.65</v>
       </c>
       <c r="G143">
-        <f t="shared" si="2"/>
+        <f>E143-E142</f>
         <v>56.100000000000364</v>
       </c>
       <c r="H143" s="5" t="s">
@@ -4561,7 +4576,7 @@
         <v>10020.549999999999</v>
       </c>
       <c r="G144" s="4">
-        <f t="shared" si="2"/>
+        <f>E144-E143</f>
         <v>-0.1000000000003638</v>
       </c>
       <c r="H144" s="7" t="s">
@@ -4592,7 +4607,7 @@
         <v>10014.5</v>
       </c>
       <c r="G145">
-        <f t="shared" si="2"/>
+        <f>E145-E144</f>
         <v>-6.0499999999992724</v>
       </c>
       <c r="H145" s="5" t="s">
@@ -4616,7 +4631,7 @@
         <v>10077.1</v>
       </c>
       <c r="G146">
-        <f t="shared" si="2"/>
+        <f>E146-E145</f>
         <v>62.600000000000364</v>
       </c>
       <c r="H146" s="5" t="s">
@@ -4643,7 +4658,7 @@
         <v>10114.65</v>
       </c>
       <c r="G147">
-        <f t="shared" si="2"/>
+        <f>E147-E146</f>
         <v>37.549999999999272</v>
       </c>
       <c r="H147" s="5" t="s">
@@ -4667,7 +4682,7 @@
         <v>10081.5</v>
       </c>
       <c r="G148">
-        <f t="shared" si="2"/>
+        <f>E148-E147</f>
         <v>-33.149999999999636</v>
       </c>
       <c r="H148" s="5" t="s">
@@ -4694,7 +4709,7 @@
         <v>10013.65</v>
       </c>
       <c r="G149">
-        <f t="shared" si="2"/>
+        <f>E149-E148</f>
         <v>-67.850000000000364</v>
       </c>
       <c r="H149" s="5" t="s">
@@ -4718,7 +4733,7 @@
         <v>10066.4</v>
       </c>
       <c r="G150">
-        <f t="shared" si="2"/>
+        <f>E150-E149</f>
         <v>52.75</v>
       </c>
       <c r="H150" s="5" t="s">
@@ -4745,7 +4760,7 @@
         <v>10057.4</v>
       </c>
       <c r="G151">
-        <f t="shared" si="2"/>
+        <f>E151-E150</f>
         <v>-9</v>
       </c>
       <c r="H151" s="5" t="s">
@@ -4772,7 +4787,7 @@
         <v>9978.5499999999993</v>
       </c>
       <c r="G152">
-        <f t="shared" si="2"/>
+        <f>E152-E151</f>
         <v>-78.850000000000364</v>
       </c>
       <c r="H152" s="5" t="s">
@@ -4796,7 +4811,7 @@
         <v>9908.0499999999993</v>
       </c>
       <c r="G153">
-        <f t="shared" si="2"/>
+        <f>E153-E152</f>
         <v>-70.5</v>
       </c>
       <c r="H153" s="5" t="s">
@@ -4820,7 +4835,7 @@
         <v>9820.25</v>
       </c>
       <c r="G154">
-        <f t="shared" si="2"/>
+        <f>E154-E153</f>
         <v>-87.799999999999272</v>
       </c>
       <c r="H154" s="5" t="s">
@@ -4844,7 +4859,7 @@
         <v>9710.7999999999993</v>
       </c>
       <c r="G155">
-        <f t="shared" si="2"/>
+        <f>E155-E154</f>
         <v>-109.45000000000073</v>
       </c>
       <c r="H155" s="5" t="s">
@@ -4868,7 +4883,7 @@
         <v>9794.15</v>
       </c>
       <c r="G156">
-        <f t="shared" si="2"/>
+        <f>E156-E155</f>
         <v>83.350000000000364</v>
       </c>
       <c r="H156" s="5" t="s">
@@ -4895,7 +4910,7 @@
         <v>9897.2999999999993</v>
       </c>
       <c r="G157">
-        <f t="shared" si="2"/>
+        <f>E157-E156</f>
         <v>103.14999999999964</v>
       </c>
       <c r="H157" s="5" t="s">
@@ -4919,7 +4934,7 @@
         <v>9904.15</v>
       </c>
       <c r="G158">
-        <f t="shared" si="2"/>
+        <f>E158-E157</f>
         <v>6.8500000000003638</v>
       </c>
       <c r="H158" s="5" t="s">
@@ -4943,7 +4958,7 @@
         <v>9837.4</v>
       </c>
       <c r="G159">
-        <f t="shared" si="2"/>
+        <f>E159-E158</f>
         <v>-66.75</v>
       </c>
       <c r="H159" s="5" t="s">
@@ -4970,7 +4985,7 @@
         <v>9754.35</v>
       </c>
       <c r="G160">
-        <f t="shared" si="2"/>
+        <f>E160-E159</f>
         <v>-83.049999999999272</v>
       </c>
       <c r="H160" s="5" t="s">
@@ -4994,7 +5009,7 @@
         <v>9765.5499999999993</v>
       </c>
       <c r="G161">
-        <f t="shared" si="2"/>
+        <f>E161-E160</f>
         <v>11.199999999998909</v>
       </c>
       <c r="H161" s="5" t="s">
@@ -5021,7 +5036,7 @@
         <v>9852.5</v>
       </c>
       <c r="G162">
-        <f t="shared" si="2"/>
+        <f>E162-E161</f>
         <v>86.950000000000728</v>
       </c>
       <c r="H162" s="5" t="s">
@@ -5045,7 +5060,7 @@
         <v>9857.0499999999993</v>
       </c>
       <c r="G163">
-        <f t="shared" si="2"/>
+        <f>E163-E162</f>
         <v>4.5499999999992724</v>
       </c>
       <c r="H163" s="5" t="s">
@@ -5069,7 +5084,7 @@
         <v>9912.7999999999993</v>
       </c>
       <c r="G164">
-        <f t="shared" si="2"/>
+        <f>E164-E163</f>
         <v>55.75</v>
       </c>
       <c r="H164" s="5" t="s">
@@ -5093,7 +5108,7 @@
         <v>9796.0499999999993</v>
       </c>
       <c r="G165">
-        <f t="shared" si="2"/>
+        <f>E165-E164</f>
         <v>-116.75</v>
       </c>
       <c r="H165" s="5" t="s">
@@ -5120,7 +5135,7 @@
         <v>9884.4</v>
       </c>
       <c r="G166">
-        <f t="shared" si="2"/>
+        <f>E166-E165</f>
         <v>88.350000000000364</v>
       </c>
       <c r="H166" s="5" t="s">
@@ -5147,7 +5162,7 @@
         <v>9917.9</v>
       </c>
       <c r="G167" s="4">
-        <f t="shared" si="2"/>
+        <f>E167-E166</f>
         <v>33.5</v>
       </c>
       <c r="H167" s="7" t="s">
@@ -5176,7 +5191,7 @@
         <v>9974.4</v>
       </c>
       <c r="G168">
-        <f t="shared" si="2"/>
+        <f>E168-E167</f>
         <v>56.5</v>
       </c>
       <c r="H168" s="5" t="s">
@@ -5200,7 +5215,7 @@
         <v>9912.85</v>
       </c>
       <c r="G169">
-        <f t="shared" si="2"/>
+        <f>E169-E168</f>
         <v>-61.549999999999272</v>
       </c>
       <c r="H169" s="5" t="s">
@@ -5227,7 +5242,7 @@
         <v>9952.2000000000007</v>
       </c>
       <c r="G170">
-        <f t="shared" si="2"/>
+        <f>E170-E169</f>
         <v>39.350000000000364</v>
       </c>
       <c r="H170" s="5" t="s">
@@ -5254,7 +5269,7 @@
         <v>9916.2000000000007</v>
       </c>
       <c r="G171">
-        <f t="shared" si="2"/>
+        <f>E171-E170</f>
         <v>-36</v>
       </c>
       <c r="H171" s="5" t="s">
@@ -5281,7 +5296,7 @@
         <v>9929.9</v>
       </c>
       <c r="G172">
-        <f t="shared" si="2"/>
+        <f>E172-E171</f>
         <v>13.699999999998909</v>
       </c>
       <c r="H172" s="5" t="s">
@@ -5308,7 +5323,7 @@
         <v>9934.7999999999993</v>
       </c>
       <c r="G173">
-        <f t="shared" si="2"/>
+        <f>E173-E172</f>
         <v>4.8999999999996362</v>
       </c>
       <c r="H173" s="5" t="s">
@@ -5332,7 +5347,7 @@
         <v>10006.049999999999</v>
       </c>
       <c r="G174">
-        <f t="shared" si="2"/>
+        <f>E174-E173</f>
         <v>71.25</v>
       </c>
       <c r="H174" s="5" t="s">
@@ -5356,7 +5371,7 @@
         <v>10093.049999999999</v>
       </c>
       <c r="G175">
-        <f t="shared" si="2"/>
+        <f>E175-E174</f>
         <v>87</v>
       </c>
       <c r="H175" s="5" t="s">
@@ -5380,7 +5395,7 @@
         <v>10079.299999999999</v>
       </c>
       <c r="G176">
-        <f t="shared" si="2"/>
+        <f>E176-E175</f>
         <v>-13.75</v>
       </c>
       <c r="H176" s="5" t="s">
@@ -5407,7 +5422,7 @@
         <v>10086.6</v>
       </c>
       <c r="G177">
-        <f t="shared" si="2"/>
+        <f>E177-E176</f>
         <v>7.3000000000010914</v>
       </c>
       <c r="H177" s="5" t="s">
@@ -5434,7 +5449,7 @@
         <v>10085.4</v>
       </c>
       <c r="G178">
-        <f t="shared" si="2"/>
+        <f>E178-E177</f>
         <v>-1.2000000000007276</v>
       </c>
       <c r="H178" s="5" t="s">
@@ -5461,7 +5476,7 @@
         <v>10153.1</v>
       </c>
       <c r="G179">
-        <f t="shared" si="2"/>
+        <f>E179-E178</f>
         <v>67.700000000000728</v>
       </c>
       <c r="H179" s="5" t="s">
@@ -5488,7 +5503,7 @@
         <v>10147.549999999999</v>
       </c>
       <c r="G180">
-        <f t="shared" si="2"/>
+        <f>E180-E179</f>
         <v>-5.5500000000010914</v>
       </c>
       <c r="H180" s="5" t="s">
@@ -5515,7 +5530,7 @@
         <v>10141.15</v>
       </c>
       <c r="G181">
-        <f t="shared" si="2"/>
+        <f>E181-E180</f>
         <v>-6.3999999999996362</v>
       </c>
       <c r="H181" s="5" t="s">
@@ -5539,7 +5554,7 @@
         <v>10121.9</v>
       </c>
       <c r="G182">
-        <f t="shared" si="2"/>
+        <f>E182-E181</f>
         <v>-19.25</v>
       </c>
       <c r="H182" s="5" t="s">
@@ -5563,7 +5578,7 @@
         <v>9964.4</v>
       </c>
       <c r="G183">
-        <f t="shared" si="2"/>
+        <f>E183-E182</f>
         <v>-157.5</v>
       </c>
       <c r="H183" s="5" t="s">
@@ -5587,7 +5602,7 @@
         <v>9872.6</v>
       </c>
       <c r="G184">
-        <f t="shared" si="2"/>
+        <f>E184-E183</f>
         <v>-91.799999999999272</v>
       </c>
       <c r="H184" s="5" t="s">
@@ -5611,7 +5626,7 @@
         <v>9871.5</v>
       </c>
       <c r="G185">
-        <f t="shared" si="2"/>
+        <f>E185-E184</f>
         <v>-1.1000000000003638</v>
       </c>
       <c r="H185" s="5" t="s">
@@ -5635,7 +5650,7 @@
         <v>9735.75</v>
       </c>
       <c r="G186">
-        <f t="shared" si="2"/>
+        <f>E186-E185</f>
         <v>-135.75</v>
       </c>
       <c r="H186" s="5" t="s">
@@ -5659,7 +5674,7 @@
         <v>9768.9500000000007</v>
       </c>
       <c r="G187" s="4">
-        <f t="shared" si="2"/>
+        <f>E187-E186</f>
         <v>33.200000000000728</v>
       </c>
       <c r="H187" s="7" t="s">
@@ -5690,7 +5705,7 @@
         <v>9788.6</v>
       </c>
       <c r="G188">
-        <f t="shared" si="2"/>
+        <f>E188-E187</f>
         <v>19.649999999999636</v>
       </c>
       <c r="H188" s="5" t="s">
@@ -5714,7 +5729,7 @@
         <v>9859.5</v>
       </c>
       <c r="G189">
-        <f t="shared" si="2"/>
+        <f>E189-E188</f>
         <v>70.899999999999636</v>
       </c>
       <c r="H189" s="5" t="s">
@@ -5738,7 +5753,7 @@
         <v>9914.9</v>
       </c>
       <c r="G190">
-        <f t="shared" si="2"/>
+        <f>E190-E189</f>
         <v>55.399999999999636</v>
       </c>
       <c r="H190" s="5" t="s">
@@ -5762,7 +5777,7 @@
         <v>9888.7000000000007</v>
       </c>
       <c r="G191">
-        <f t="shared" si="2"/>
+        <f>E191-E190</f>
         <v>-26.199999999998909</v>
       </c>
       <c r="H191" s="5" t="s">
@@ -5789,7 +5804,7 @@
         <v>9979.7000000000007</v>
       </c>
       <c r="G192">
-        <f t="shared" si="2"/>
+        <f>E192-E191</f>
         <v>91</v>
       </c>
       <c r="H192" s="5" t="s">
@@ -5799,7 +5814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:12">
       <c r="A193" s="1">
         <v>43017</v>
       </c>
@@ -5816,14 +5831,14 @@
         <v>9988.75</v>
       </c>
       <c r="G193">
-        <f t="shared" si="2"/>
+        <f>E193-E192</f>
         <v>9.0499999999992724</v>
       </c>
       <c r="H193" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:12">
       <c r="A194" s="1">
         <v>43018</v>
       </c>
@@ -5840,14 +5855,14 @@
         <v>10016.950000000001</v>
       </c>
       <c r="G194">
-        <f t="shared" si="2"/>
+        <f>E194-E193</f>
         <v>28.200000000000728</v>
       </c>
       <c r="H194" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:12">
       <c r="A195" s="1">
         <v>43019</v>
       </c>
@@ -5864,7 +5879,7 @@
         <v>9984.7999999999993</v>
       </c>
       <c r="G195">
-        <f t="shared" si="2"/>
+        <f>E195-E194</f>
         <v>-32.150000000001455</v>
       </c>
       <c r="H195" s="5" t="s">
@@ -5874,11 +5889,813 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
-      <c r="A196" s="1"/>
+    <row r="196" spans="1:12">
+      <c r="A196" s="8">
+        <v>43020</v>
+      </c>
+      <c r="B196" s="9">
+        <v>10011.200000000001</v>
+      </c>
+      <c r="C196" s="9">
+        <v>10104.450000000001</v>
+      </c>
+      <c r="D196" s="9">
+        <v>9977.1</v>
+      </c>
+      <c r="E196" s="9">
+        <v>10096.4</v>
+      </c>
+      <c r="F196" s="9"/>
+      <c r="G196">
+        <f>E196-E195</f>
+        <v>111.60000000000036</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="A197" s="8">
+        <v>43021</v>
+      </c>
+      <c r="B197" s="9">
+        <v>10123.700000000001</v>
+      </c>
+      <c r="C197" s="9">
+        <v>10191.9</v>
+      </c>
+      <c r="D197" s="9">
+        <v>10120.1</v>
+      </c>
+      <c r="E197" s="9">
+        <v>10167.450000000001</v>
+      </c>
+      <c r="F197" s="9"/>
+      <c r="G197">
+        <f>E197-E196</f>
+        <v>71.050000000001091</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="A198" s="8">
+        <v>43024</v>
+      </c>
+      <c r="B198" s="9">
+        <v>10207.4</v>
+      </c>
+      <c r="C198" s="9">
+        <v>10242.950000000001</v>
+      </c>
+      <c r="D198" s="9">
+        <v>10175.1</v>
+      </c>
+      <c r="E198" s="9">
+        <v>10230.85</v>
+      </c>
+      <c r="F198" s="9"/>
+      <c r="G198">
+        <f>E198-E197</f>
+        <v>63.399999999999636</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="A199" s="8">
+        <v>43025</v>
+      </c>
+      <c r="B199" s="9">
+        <v>10227.65</v>
+      </c>
+      <c r="C199" s="9">
+        <v>10251.85</v>
+      </c>
+      <c r="D199" s="9">
+        <v>10212.6</v>
+      </c>
+      <c r="E199" s="9">
+        <v>10234.450000000001</v>
+      </c>
+      <c r="F199" s="9"/>
+      <c r="G199">
+        <f>E199-E198</f>
+        <v>3.6000000000003638</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="A200" s="8">
+        <v>43026</v>
+      </c>
+      <c r="B200" s="9">
+        <v>10209.4</v>
+      </c>
+      <c r="C200" s="9">
+        <v>10236.450000000001</v>
+      </c>
+      <c r="D200" s="9">
+        <v>10175.75</v>
+      </c>
+      <c r="E200" s="9">
+        <v>10210.85</v>
+      </c>
+      <c r="F200" s="9"/>
+      <c r="G200">
+        <f>E200-E199</f>
+        <v>-23.600000000000364</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201" s="8">
+        <v>43027</v>
+      </c>
+      <c r="B201" s="9">
+        <v>10210.35</v>
+      </c>
+      <c r="C201" s="9">
+        <v>10211.950000000001</v>
+      </c>
+      <c r="D201" s="9">
+        <v>10123.35</v>
+      </c>
+      <c r="E201" s="9">
+        <v>10146.549999999999</v>
+      </c>
+      <c r="F201" s="9"/>
+      <c r="G201">
+        <f>E201-E200</f>
+        <v>-64.300000000001091</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
+      <c r="A202" s="8">
+        <v>43031</v>
+      </c>
+      <c r="B202" s="9">
+        <v>10176.65</v>
+      </c>
+      <c r="C202" s="9">
+        <v>10224.15</v>
+      </c>
+      <c r="D202" s="9">
+        <v>10124.5</v>
+      </c>
+      <c r="E202" s="9">
+        <v>10184.85</v>
+      </c>
+      <c r="F202" s="9"/>
+      <c r="G202">
+        <f>E202-E201</f>
+        <v>38.300000000001091</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
+      <c r="A203" s="8">
+        <v>43032</v>
+      </c>
+      <c r="B203" s="9">
+        <v>10218.549999999999</v>
+      </c>
+      <c r="C203" s="9">
+        <v>10237.75</v>
+      </c>
+      <c r="D203" s="9">
+        <v>10182.4</v>
+      </c>
+      <c r="E203" s="9">
+        <v>10207.700000000001</v>
+      </c>
+      <c r="F203" s="9"/>
+      <c r="G203">
+        <f>E203-E202</f>
+        <v>22.850000000000364</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
+      <c r="A204" s="8">
+        <v>43033</v>
+      </c>
+      <c r="B204" s="9">
+        <v>10321.15</v>
+      </c>
+      <c r="C204" s="9">
+        <v>10340.549999999999</v>
+      </c>
+      <c r="D204" s="9">
+        <v>10240.9</v>
+      </c>
+      <c r="E204" s="9">
+        <v>10295.35</v>
+      </c>
+      <c r="F204" s="9"/>
+      <c r="G204">
+        <f>E204-E203</f>
+        <v>87.649999999999636</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" s="4" customFormat="1">
+      <c r="A205" s="10">
+        <v>43034</v>
+      </c>
+      <c r="B205" s="11">
+        <v>10291.799999999999</v>
+      </c>
+      <c r="C205" s="11">
+        <v>10355.65</v>
+      </c>
+      <c r="D205" s="11">
+        <v>10271.85</v>
+      </c>
+      <c r="E205" s="11">
+        <v>10343.799999999999</v>
+      </c>
+      <c r="F205" s="11"/>
+      <c r="G205" s="4">
+        <f>E205-E204</f>
+        <v>48.449999999998909</v>
+      </c>
+      <c r="H205" s="7"/>
+      <c r="I205" s="7"/>
+      <c r="L205" s="4">
+        <f>E205-E187</f>
+        <v>574.84999999999854</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
+      <c r="A206" s="8">
+        <v>43035</v>
+      </c>
+      <c r="B206" s="9">
+        <v>10362.299999999999</v>
+      </c>
+      <c r="C206" s="9">
+        <v>10366.15</v>
+      </c>
+      <c r="D206" s="9">
+        <v>10311.299999999999</v>
+      </c>
+      <c r="E206" s="9">
+        <v>10323.049999999999</v>
+      </c>
+      <c r="F206" s="9"/>
+      <c r="G206">
+        <f>E206-E205</f>
+        <v>-20.75</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
+      <c r="A207" s="8">
+        <v>43038</v>
+      </c>
+      <c r="B207" s="9">
+        <v>10353.85</v>
+      </c>
+      <c r="C207" s="9">
+        <v>10384.5</v>
+      </c>
+      <c r="D207" s="9">
+        <v>10344.299999999999</v>
+      </c>
+      <c r="E207" s="9">
+        <v>10363.65</v>
+      </c>
+      <c r="F207" s="9"/>
+      <c r="G207">
+        <f>E207-E206</f>
+        <v>40.600000000000364</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
+      <c r="A208" s="8">
+        <v>43039</v>
+      </c>
+      <c r="B208" s="9">
+        <v>10364.9</v>
+      </c>
+      <c r="C208" s="9">
+        <v>10367.700000000001</v>
+      </c>
+      <c r="D208" s="9">
+        <v>10323.950000000001</v>
+      </c>
+      <c r="E208" s="9">
+        <v>10335.299999999999</v>
+      </c>
+      <c r="F208" s="9"/>
+      <c r="G208">
+        <f>E208-E207</f>
+        <v>-28.350000000000364</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="8">
+        <v>43040</v>
+      </c>
+      <c r="B209" s="9">
+        <v>10390.35</v>
+      </c>
+      <c r="C209" s="9">
+        <v>10451.65</v>
+      </c>
+      <c r="D209" s="9">
+        <v>10383.049999999999</v>
+      </c>
+      <c r="E209" s="9">
+        <v>10440.5</v>
+      </c>
+      <c r="F209" s="9"/>
+      <c r="G209">
+        <f>E209-E208</f>
+        <v>105.20000000000073</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="8">
+        <v>43041</v>
+      </c>
+      <c r="B210" s="9">
+        <v>10440.5</v>
+      </c>
+      <c r="C210" s="9">
+        <v>10453</v>
+      </c>
+      <c r="D210" s="9">
+        <v>10412.549999999999</v>
+      </c>
+      <c r="E210" s="9">
+        <v>10423.799999999999</v>
+      </c>
+      <c r="F210" s="9"/>
+      <c r="G210">
+        <f>E210-E209</f>
+        <v>-16.700000000000728</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="8">
+        <v>43042</v>
+      </c>
+      <c r="B211" s="9">
+        <v>10461.549999999999</v>
+      </c>
+      <c r="C211" s="9">
+        <v>10461.700000000001</v>
+      </c>
+      <c r="D211" s="9">
+        <v>10403.6</v>
+      </c>
+      <c r="E211" s="9">
+        <v>10452.5</v>
+      </c>
+      <c r="F211" s="9"/>
+      <c r="G211">
+        <f>E211-E210</f>
+        <v>28.700000000000728</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="8">
+        <v>43045</v>
+      </c>
+      <c r="B212" s="9">
+        <v>10431.75</v>
+      </c>
+      <c r="C212" s="9">
+        <v>10490.45</v>
+      </c>
+      <c r="D212" s="9">
+        <v>10413.75</v>
+      </c>
+      <c r="E212" s="9">
+        <v>10451.799999999999</v>
+      </c>
+      <c r="F212" s="9"/>
+      <c r="G212">
+        <f>E212-E211</f>
+        <v>-0.7000000000007276</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="8">
+        <v>43046</v>
+      </c>
+      <c r="B213" s="9">
+        <v>10477.15</v>
+      </c>
+      <c r="C213" s="9">
+        <v>10485.75</v>
+      </c>
+      <c r="D213" s="9">
+        <v>10340.799999999999</v>
+      </c>
+      <c r="E213" s="9">
+        <v>10350.15</v>
+      </c>
+      <c r="F213" s="9"/>
+      <c r="G213">
+        <f>E213-E212</f>
+        <v>-101.64999999999964</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="8">
+        <v>43047</v>
+      </c>
+      <c r="B214" s="9">
+        <v>10361.950000000001</v>
+      </c>
+      <c r="C214" s="9">
+        <v>10384.25</v>
+      </c>
+      <c r="D214" s="9">
+        <v>10285.5</v>
+      </c>
+      <c r="E214" s="9">
+        <v>10303.15</v>
+      </c>
+      <c r="F214" s="9"/>
+      <c r="G214">
+        <f>E214-E213</f>
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="8">
+        <v>43048</v>
+      </c>
+      <c r="B215" s="9">
+        <v>10358.65</v>
+      </c>
+      <c r="C215" s="9">
+        <v>10368.450000000001</v>
+      </c>
+      <c r="D215" s="9">
+        <v>10266.950000000001</v>
+      </c>
+      <c r="E215" s="9">
+        <v>10308.950000000001</v>
+      </c>
+      <c r="F215" s="9"/>
+      <c r="G215">
+        <f>E215-E214</f>
+        <v>5.8000000000010914</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="8">
+        <v>43049</v>
+      </c>
+      <c r="B216" s="9">
+        <v>10304.35</v>
+      </c>
+      <c r="C216" s="9">
+        <v>10344.950000000001</v>
+      </c>
+      <c r="D216" s="9">
+        <v>10254.1</v>
+      </c>
+      <c r="E216" s="9">
+        <v>10321.75</v>
+      </c>
+      <c r="F216" s="9"/>
+      <c r="G216">
+        <f>E216-E215</f>
+        <v>12.799999999999272</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="8">
+        <v>43052</v>
+      </c>
+      <c r="B217" s="9">
+        <v>10322</v>
+      </c>
+      <c r="C217" s="9">
+        <v>10334.15</v>
+      </c>
+      <c r="D217" s="9">
+        <v>10216.25</v>
+      </c>
+      <c r="E217" s="9">
+        <v>10224.950000000001</v>
+      </c>
+      <c r="F217" s="9"/>
+      <c r="G217">
+        <f>E217-E216</f>
+        <v>-96.799999999999272</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="8">
+        <v>43053</v>
+      </c>
+      <c r="B218" s="9">
+        <v>10223.4</v>
+      </c>
+      <c r="C218" s="9">
+        <v>10248</v>
+      </c>
+      <c r="D218" s="9">
+        <v>10175.549999999999</v>
+      </c>
+      <c r="E218" s="9">
+        <v>10186.6</v>
+      </c>
+      <c r="F218" s="9"/>
+      <c r="G218">
+        <f>E218-E217</f>
+        <v>-38.350000000000364</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="8">
+        <v>43054</v>
+      </c>
+      <c r="B219" s="9">
+        <v>10171.950000000001</v>
+      </c>
+      <c r="C219" s="9">
+        <v>10175.450000000001</v>
+      </c>
+      <c r="D219" s="9">
+        <v>10094</v>
+      </c>
+      <c r="E219" s="9">
+        <v>10118.049999999999</v>
+      </c>
+      <c r="F219" s="9"/>
+      <c r="G219">
+        <f>E219-E218</f>
+        <v>-68.550000000001091</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="8">
+        <v>43055</v>
+      </c>
+      <c r="B220" s="9">
+        <v>10152.9</v>
+      </c>
+      <c r="C220" s="9">
+        <v>10232.25</v>
+      </c>
+      <c r="D220" s="9">
+        <v>10139.200000000001</v>
+      </c>
+      <c r="E220" s="9">
+        <v>10214.75</v>
+      </c>
+      <c r="F220" s="9"/>
+      <c r="G220">
+        <f>E220-E219</f>
+        <v>96.700000000000728</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="8">
+        <v>43056</v>
+      </c>
+      <c r="B221" s="9">
+        <v>10324.549999999999</v>
+      </c>
+      <c r="C221" s="9">
+        <v>10343.6</v>
+      </c>
+      <c r="D221" s="9">
+        <v>10268.049999999999</v>
+      </c>
+      <c r="E221" s="9">
+        <v>10283.6</v>
+      </c>
+      <c r="F221" s="9"/>
+      <c r="G221">
+        <f>E221-E220</f>
+        <v>68.850000000000364</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="8">
+        <v>43059</v>
+      </c>
+      <c r="B222" s="9">
+        <v>10287.200000000001</v>
+      </c>
+      <c r="C222" s="9">
+        <v>10309.85</v>
+      </c>
+      <c r="D222" s="9">
+        <v>10261.5</v>
+      </c>
+      <c r="E222" s="9">
+        <v>10298.75</v>
+      </c>
+      <c r="F222" s="9"/>
+      <c r="G222">
+        <f>E222-E221</f>
+        <v>15.149999999999636</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="8">
+        <v>43060</v>
+      </c>
+      <c r="B223" s="9">
+        <v>10329.25</v>
+      </c>
+      <c r="C223" s="9">
+        <v>10358.700000000001</v>
+      </c>
+      <c r="D223" s="9">
+        <v>10315.049999999999</v>
+      </c>
+      <c r="E223" s="9">
+        <v>10326.9</v>
+      </c>
+      <c r="F223" s="9"/>
+      <c r="G223">
+        <f>E223-E222</f>
+        <v>28.149999999999636</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="8">
+        <v>43061</v>
+      </c>
+      <c r="B224" s="9">
+        <v>10350.799999999999</v>
+      </c>
+      <c r="C224" s="9">
+        <v>10368.700000000001</v>
+      </c>
+      <c r="D224" s="9">
+        <v>10309.549999999999</v>
+      </c>
+      <c r="E224" s="9">
+        <v>10342.299999999999</v>
+      </c>
+      <c r="F224" s="9"/>
+      <c r="G224">
+        <f>E224-E223</f>
+        <v>15.399999999999636</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
+      <c r="A225" s="8">
+        <v>43062</v>
+      </c>
+      <c r="B225" s="9">
+        <v>10358.450000000001</v>
+      </c>
+      <c r="C225" s="9">
+        <v>10374.299999999999</v>
+      </c>
+      <c r="D225" s="9">
+        <v>10307.299999999999</v>
+      </c>
+      <c r="E225" s="9">
+        <v>10348.75</v>
+      </c>
+      <c r="F225" s="9"/>
+      <c r="G225">
+        <f>E225-E224</f>
+        <v>6.4500000000007276</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12">
+      <c r="A226" s="8">
+        <v>43063</v>
+      </c>
+      <c r="B226" s="9">
+        <v>10366.799999999999</v>
+      </c>
+      <c r="C226" s="9">
+        <v>10404.5</v>
+      </c>
+      <c r="D226" s="9">
+        <v>10362.25</v>
+      </c>
+      <c r="E226" s="9">
+        <v>10389.700000000001</v>
+      </c>
+      <c r="F226" s="9"/>
+      <c r="G226">
+        <f>E226-E225</f>
+        <v>40.950000000000728</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
+      <c r="A227" s="8">
+        <v>43066</v>
+      </c>
+      <c r="B227" s="9">
+        <v>10361.049999999999</v>
+      </c>
+      <c r="C227" s="9">
+        <v>10407.15</v>
+      </c>
+      <c r="D227" s="9">
+        <v>10340.200000000001</v>
+      </c>
+      <c r="E227" s="9">
+        <v>10399.549999999999</v>
+      </c>
+      <c r="F227" s="9"/>
+      <c r="G227">
+        <f>E227-E226</f>
+        <v>9.8499999999985448</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
+      <c r="A228" s="8">
+        <v>43067</v>
+      </c>
+      <c r="B228" s="9">
+        <v>10387.9</v>
+      </c>
+      <c r="C228" s="9">
+        <v>10409.549999999999</v>
+      </c>
+      <c r="D228" s="9">
+        <v>10355.200000000001</v>
+      </c>
+      <c r="E228" s="9">
+        <v>10370.25</v>
+      </c>
+      <c r="F228" s="9"/>
+      <c r="G228">
+        <f>E228-E227</f>
+        <v>-29.299999999999272</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
+      <c r="A229" s="8">
+        <v>43068</v>
+      </c>
+      <c r="B229" s="9">
+        <v>10376.65</v>
+      </c>
+      <c r="C229" s="9">
+        <v>10392.950000000001</v>
+      </c>
+      <c r="D229" s="9">
+        <v>10345.9</v>
+      </c>
+      <c r="E229" s="9">
+        <v>10361.299999999999</v>
+      </c>
+      <c r="F229" s="9"/>
+      <c r="G229">
+        <f>E229-E228</f>
+        <v>-8.9500000000007276</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" s="4" customFormat="1">
+      <c r="A230" s="10">
+        <v>43069</v>
+      </c>
+      <c r="B230" s="11">
+        <v>10332.700000000001</v>
+      </c>
+      <c r="C230" s="11">
+        <v>10332.700000000001</v>
+      </c>
+      <c r="D230" s="11">
+        <v>10211.25</v>
+      </c>
+      <c r="E230" s="11">
+        <v>10226.549999999999</v>
+      </c>
+      <c r="F230" s="11"/>
+      <c r="G230" s="4">
+        <f>E230-E229</f>
+        <v>-134.75</v>
+      </c>
+      <c r="H230" s="7"/>
+      <c r="I230" s="7"/>
+      <c r="L230" s="4">
+        <f>E230-E205</f>
+        <v>-117.25</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
+      <c r="A231" s="8">
+        <v>43070</v>
+      </c>
+      <c r="B231" s="9">
+        <v>10263.700000000001</v>
+      </c>
+      <c r="C231" s="9">
+        <v>10272.700000000001</v>
+      </c>
+      <c r="D231" s="9">
+        <v>10108.549999999999</v>
+      </c>
+      <c r="E231" s="9">
+        <v>10121.799999999999</v>
+      </c>
+      <c r="F231" s="9"/>
+      <c r="G231">
+        <f>E231-E230</f>
+        <v>-104.75</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>